--- a/TestFramework/ExcelSheet/Aka_Excel_Sheet.xlsx
+++ b/TestFramework/ExcelSheet/Aka_Excel_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>firefox</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +705,7 @@
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -937,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,8 +1106,8 @@
       <c r="W2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X2">
-        <v>2018</v>
+      <c r="X2" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="Y2" t="s">
         <v>75</v>
